--- a/cheetos.xlsx
+++ b/cheetos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Insper\Insper_2º_semestre\Ciência dos dados\P1-CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matkwon/OneDrive - Insper - Institudo de Ensino e Pesquisa/OneDrive/2o Sem/CDados/P1-CD-2020.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863529E5-BA58-4BA5-83C5-2B0AD891207C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D635213-FF23-FB47-B4B9-DB533E7841AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1617,6 +1617,9 @@
   </si>
   <si>
     <t>o cheetos azul é o melhor de todos e se você não concorda fds</t>
+  </si>
+  <si>
+    <t>relevancia</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1701,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2020,18 +2023,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2319,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2615,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2655,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2999,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3039,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3063,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3135,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3287,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -3415,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -3567,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3639,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3807,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3839,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3847,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3855,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3895,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -3959,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4079,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -4135,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -4175,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -4191,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -4199,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -4239,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -4247,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -4271,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -4287,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -4295,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -4303,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -4319,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -4327,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -4367,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -4375,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -4383,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -4407,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -4423,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -4440,18 +4446,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -4459,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -4467,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -4475,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -4483,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -4491,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>307</v>
       </c>
@@ -4499,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -4507,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>309</v>
       </c>
@@ -4515,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>310</v>
       </c>
@@ -4523,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>311</v>
       </c>
@@ -4531,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>312</v>
       </c>
@@ -4539,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>313</v>
       </c>
@@ -4547,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>314</v>
       </c>
@@ -4555,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>315</v>
       </c>
@@ -4563,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>316</v>
       </c>
@@ -4571,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -4579,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -4587,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>319</v>
       </c>
@@ -4595,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>320</v>
       </c>
@@ -4603,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>321</v>
       </c>
@@ -4611,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>322</v>
       </c>
@@ -4619,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>323</v>
       </c>
@@ -4627,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -4635,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -4643,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -4651,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>327</v>
       </c>
@@ -4659,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>328</v>
       </c>
@@ -4667,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -4675,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -4683,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -4691,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>333</v>
       </c>
@@ -4707,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>334</v>
       </c>
@@ -4715,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -4723,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -4731,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>337</v>
       </c>
@@ -4739,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>338</v>
       </c>
@@ -4747,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -4755,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -4763,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>341</v>
       </c>
@@ -4771,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -4787,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>344</v>
       </c>
@@ -4795,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -4803,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>346</v>
       </c>
@@ -4811,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>347</v>
       </c>
@@ -4819,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>348</v>
       </c>
@@ -4827,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -4835,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>350</v>
       </c>
@@ -4843,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>351</v>
       </c>
@@ -4851,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -4859,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -4867,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -4875,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -4883,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>356</v>
       </c>
@@ -4891,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>357</v>
       </c>
@@ -4899,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>358</v>
       </c>
@@ -4907,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>359</v>
       </c>
@@ -4915,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>360</v>
       </c>
@@ -4923,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -4931,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>362</v>
       </c>
@@ -4939,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>363</v>
       </c>
@@ -4947,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>364</v>
       </c>
@@ -4955,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>365</v>
       </c>
@@ -4963,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>366</v>
       </c>
@@ -4971,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>367</v>
       </c>
@@ -4979,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>368</v>
       </c>
@@ -4987,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>369</v>
       </c>
@@ -4995,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>370</v>
       </c>
@@ -5003,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>371</v>
       </c>
@@ -5011,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -5019,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>373</v>
       </c>
@@ -5027,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -5035,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>375</v>
       </c>
@@ -5043,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>376</v>
       </c>
@@ -5051,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>377</v>
       </c>
@@ -5059,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>378</v>
       </c>
@@ -5067,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>379</v>
       </c>
@@ -5075,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>380</v>
       </c>
@@ -5083,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>381</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -5099,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>383</v>
       </c>
@@ -5107,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>384</v>
       </c>
@@ -5115,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>385</v>
       </c>
@@ -5123,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>386</v>
       </c>
@@ -5131,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>387</v>
       </c>
@@ -5139,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>388</v>
       </c>
@@ -5147,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>389</v>
       </c>
@@ -5155,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>390</v>
       </c>
@@ -5163,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>391</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>392</v>
       </c>
@@ -5179,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>393</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>394</v>
       </c>
@@ -5195,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>395</v>
       </c>
@@ -5203,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -5211,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -5219,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>398</v>
       </c>
@@ -5227,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>399</v>
       </c>
@@ -5235,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>400</v>
       </c>
@@ -5243,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>401</v>
       </c>
@@ -5251,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -5259,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>403</v>
       </c>
@@ -5267,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -5275,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>405</v>
       </c>
@@ -5283,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>406</v>
       </c>
@@ -5291,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>407</v>
       </c>
@@ -5299,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>408</v>
       </c>
@@ -5307,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>409</v>
       </c>
@@ -5315,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>410</v>
       </c>
@@ -5323,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>411</v>
       </c>
@@ -5331,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>413</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>414</v>
       </c>
@@ -5355,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>415</v>
       </c>
@@ -5363,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>416</v>
       </c>
@@ -5371,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>417</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>418</v>
       </c>
@@ -5387,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>419</v>
       </c>
@@ -5395,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>420</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>421</v>
       </c>
@@ -5411,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>422</v>
       </c>
@@ -5419,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>423</v>
       </c>
@@ -5427,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>424</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>425</v>
       </c>
@@ -5443,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>426</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -5459,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>428</v>
       </c>
@@ -5467,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -5475,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -5483,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -5491,7 +5500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -5499,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -5515,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -5523,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -5531,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>438</v>
       </c>
@@ -5547,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>439</v>
       </c>
@@ -5555,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>440</v>
       </c>
@@ -5563,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>441</v>
       </c>
@@ -5571,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -5579,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>443</v>
       </c>
@@ -5587,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>444</v>
       </c>
@@ -5595,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>445</v>
       </c>
@@ -5603,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>446</v>
       </c>
@@ -5611,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>447</v>
       </c>
@@ -5619,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>448</v>
       </c>
@@ -5627,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>449</v>
       </c>
@@ -5635,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -5643,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -5651,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>452</v>
       </c>
@@ -5659,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -5667,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>454</v>
       </c>
@@ -5675,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -5683,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>456</v>
       </c>
@@ -5691,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>457</v>
       </c>
@@ -5699,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>458</v>
       </c>
@@ -5707,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>459</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>460</v>
       </c>
@@ -5723,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>461</v>
       </c>
@@ -5731,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>462</v>
       </c>
@@ -5739,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>463</v>
       </c>
@@ -5747,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>464</v>
       </c>
@@ -5755,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>465</v>
       </c>
@@ -5763,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>466</v>
       </c>
@@ -5771,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>467</v>
       </c>
@@ -5779,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>468</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>469</v>
       </c>
@@ -5795,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>470</v>
       </c>
@@ -5803,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>471</v>
       </c>
@@ -5811,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>472</v>
       </c>
@@ -5819,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>473</v>
       </c>
@@ -5827,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>474</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>475</v>
       </c>
@@ -5843,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>476</v>
       </c>
@@ -5851,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>477</v>
       </c>
@@ -5859,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>478</v>
       </c>
@@ -5867,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>479</v>
       </c>
@@ -5875,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>480</v>
       </c>
@@ -5883,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>481</v>
       </c>
@@ -5891,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>482</v>
       </c>
@@ -5899,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>483</v>
       </c>
@@ -5907,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>484</v>
       </c>
@@ -5915,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>485</v>
       </c>
@@ -5923,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>486</v>
       </c>
@@ -5931,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -5939,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>488</v>
       </c>
@@ -5947,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>489</v>
       </c>
@@ -5955,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>490</v>
       </c>
@@ -5963,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>491</v>
       </c>
@@ -5971,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -5979,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>493</v>
       </c>
@@ -5987,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>494</v>
       </c>
@@ -5995,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>495</v>
       </c>
@@ -6003,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>496</v>
       </c>
@@ -6011,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>497</v>
       </c>
@@ -6019,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>498</v>
       </c>
@@ -6027,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>499</v>
       </c>
@@ -6035,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>500</v>
       </c>
@@ -6043,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>501</v>
       </c>

--- a/cheetos.xlsx
+++ b/cheetos.xlsx
@@ -1626,7 +1626,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1642,7 +1642,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -1684,15 +1683,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1914,7 +1909,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="94.38"/>
-    <col customWidth="1" min="2" max="26" width="7.75"/>
+    <col customWidth="1" min="2" max="6" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1930,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1938,23 +1933,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
+      <c r="B4" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.0</v>
+      <c r="B5" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1962,15 +1957,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>1.0</v>
+      <c r="B7" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1985,7 +1980,7 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2001,15 +1996,15 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.0</v>
+      <c r="B11" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2025,24 +2020,24 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1.0</v>
+      <c r="B14" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.0</v>
+      <c r="B15" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
-        <v>1.0</v>
+      <c r="B16" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -2057,8 +2052,8 @@
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
-        <v>1.0</v>
+      <c r="B18" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -2066,7 +2061,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -2074,7 +2069,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2090,14 +2085,14 @@
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2105,40 +2100,40 @@
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.0</v>
+      <c r="B24" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
-        <v>0.0</v>
+      <c r="B25" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.0</v>
+      <c r="B26" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
-        <v>1.0</v>
+      <c r="B27" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
-        <v>1.0</v>
+      <c r="B28" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -2161,8 +2156,8 @@
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
-        <v>1.0</v>
+      <c r="B31" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -2185,8 +2180,8 @@
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
-        <v>1.0</v>
+      <c r="B34" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -2201,7 +2196,7 @@
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2209,24 +2204,24 @@
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2">
-        <v>0.0</v>
+      <c r="B37" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2">
-        <v>1.0</v>
+      <c r="B38" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
-        <v>0.0</v>
+      <c r="B39" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -2241,8 +2236,8 @@
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2">
-        <v>0.0</v>
+      <c r="B41" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -2265,31 +2260,31 @@
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2">
-        <v>0.0</v>
+      <c r="B44" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2">
-        <v>1.0</v>
+      <c r="B45" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2">
-        <v>0.0</v>
+      <c r="B46" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2298,7 +2293,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -2321,8 +2316,8 @@
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="2">
-        <v>1.0</v>
+      <c r="B51" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -2337,8 +2332,8 @@
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2">
-        <v>1.0</v>
+      <c r="B53" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -2354,7 +2349,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -2369,16 +2364,16 @@
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="2">
-        <v>0.0</v>
+      <c r="B57" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="2">
-        <v>0.0</v>
+      <c r="B58" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2386,15 +2381,15 @@
         <v>59</v>
       </c>
       <c r="B59" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="2">
-        <v>1.0</v>
+      <c r="B60" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -2402,23 +2397,23 @@
         <v>61</v>
       </c>
       <c r="B61" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="2">
-        <v>0.0</v>
+      <c r="B62" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="2">
-        <v>0.0</v>
+      <c r="B63" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -2426,7 +2421,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -2441,15 +2436,15 @@
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="2">
-        <v>1.0</v>
+      <c r="B66" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2481,7 +2476,7 @@
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2489,7 +2484,7 @@
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2505,8 +2500,8 @@
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="2">
-        <v>0.0</v>
+      <c r="B74" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -2514,14 +2509,14 @@
         <v>75</v>
       </c>
       <c r="B75" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2530,22 +2525,22 @@
         <v>77</v>
       </c>
       <c r="B77" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="2">
-        <v>0.0</v>
+      <c r="B78" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -2554,7 +2549,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -2562,39 +2557,39 @@
         <v>81</v>
       </c>
       <c r="B81" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="2">
-        <v>1.0</v>
+      <c r="B82" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="2">
-        <v>1.0</v>
+      <c r="B83" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="2">
-        <v>1.0</v>
+      <c r="B84" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="2">
-        <v>1.0</v>
+      <c r="B85" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -2602,30 +2597,30 @@
         <v>86</v>
       </c>
       <c r="B86" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="2">
-        <v>0.0</v>
+      <c r="B87" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="2">
-        <v>1.0</v>
+      <c r="B88" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2633,7 +2628,7 @@
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -2641,7 +2636,7 @@
       <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2681,8 +2676,8 @@
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="2">
-        <v>1.0</v>
+      <c r="B96" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -2697,16 +2692,16 @@
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="2">
-        <v>1.0</v>
+      <c r="B98" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="2">
-        <v>1.0</v>
+      <c r="B99" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -2714,7 +2709,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -2722,7 +2717,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -2737,23 +2732,23 @@
       <c r="A103" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="2">
-        <v>0.0</v>
+      <c r="B103" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="2">
-        <v>1.0</v>
+      <c r="B104" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2762,15 +2757,15 @@
         <v>106</v>
       </c>
       <c r="B106" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="2">
-        <v>1.0</v>
+      <c r="B107" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
@@ -2809,8 +2804,8 @@
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="2">
-        <v>1.0</v>
+      <c r="B112" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
@@ -2818,15 +2813,15 @@
         <v>113</v>
       </c>
       <c r="B113" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="2">
-        <v>0.0</v>
+      <c r="B114" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
@@ -2849,15 +2844,15 @@
       <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="2">
-        <v>0.0</v>
+      <c r="B117" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2865,7 +2860,7 @@
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2881,15 +2876,15 @@
       <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="2">
-        <v>0.0</v>
+      <c r="B121" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2898,14 +2893,14 @@
         <v>123</v>
       </c>
       <c r="B123" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2921,7 +2916,7 @@
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2929,15 +2924,15 @@
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="2">
-        <v>1.0</v>
+      <c r="B127" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2946,14 +2941,14 @@
         <v>129</v>
       </c>
       <c r="B129" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2962,7 +2957,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
@@ -2977,7 +2972,7 @@
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -2986,7 +2981,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
@@ -3009,7 +3004,7 @@
       <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3026,7 +3021,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
@@ -3041,8 +3036,8 @@
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="2">
-        <v>1.0</v>
+      <c r="B141" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
@@ -3073,15 +3068,15 @@
       <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="2">
-        <v>1.0</v>
+      <c r="B145" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3089,7 +3084,7 @@
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3097,8 +3092,8 @@
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="2">
-        <v>0.0</v>
+      <c r="B148" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
@@ -3161,7 +3156,7 @@
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3169,8 +3164,8 @@
       <c r="A157" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="2">
-        <v>1.0</v>
+      <c r="B157" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
@@ -3178,7 +3173,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
@@ -3186,7 +3181,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
@@ -3225,8 +3220,8 @@
       <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="2">
-        <v>0.0</v>
+      <c r="B164" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
@@ -3241,7 +3236,7 @@
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3258,7 +3253,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
@@ -3282,7 +3277,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
@@ -3297,8 +3292,8 @@
       <c r="A173" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="2">
-        <v>1.0</v>
+      <c r="B173" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
@@ -3321,8 +3316,8 @@
       <c r="A176" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="2">
-        <v>1.0</v>
+      <c r="B176" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
@@ -3337,7 +3332,7 @@
       <c r="A178" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3361,7 +3356,7 @@
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3370,7 +3365,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
@@ -3393,7 +3388,7 @@
       <c r="A185" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3409,8 +3404,8 @@
       <c r="A187" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="2">
-        <v>1.0</v>
+      <c r="B187" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
@@ -3425,7 +3420,7 @@
       <c r="A189" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3450,14 +3445,14 @@
         <v>192</v>
       </c>
       <c r="B192" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3465,8 +3460,8 @@
       <c r="A194" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="2">
-        <v>1.0</v>
+      <c r="B194" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
@@ -3481,8 +3476,8 @@
       <c r="A196" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B196" s="2">
-        <v>1.0</v>
+      <c r="B196" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
@@ -3497,7 +3492,7 @@
       <c r="A198" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3505,7 +3500,7 @@
       <c r="A199" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3513,7 +3508,7 @@
       <c r="A200" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3521,7 +3516,7 @@
       <c r="A201" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3553,7 +3548,7 @@
       <c r="A205" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3585,15 +3580,15 @@
       <c r="A209" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B209" s="2">
-        <v>1.0</v>
+      <c r="B209" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3601,7 +3596,7 @@
       <c r="A211" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3617,8 +3612,8 @@
       <c r="A213" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="2">
-        <v>1.0</v>
+      <c r="B213" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
@@ -3633,8 +3628,8 @@
       <c r="A215" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B215" s="2">
-        <v>1.0</v>
+      <c r="B215" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
@@ -3673,7 +3668,7 @@
       <c r="A220" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3705,7 +3700,7 @@
       <c r="A224" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3721,7 +3716,7 @@
       <c r="A226" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3745,7 +3740,7 @@
       <c r="A229" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3753,16 +3748,16 @@
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B230" s="2">
-        <v>1.0</v>
+      <c r="B230" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="2">
-        <v>1.0</v>
+      <c r="B231" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
@@ -3793,7 +3788,7 @@
       <c r="A235" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3809,7 +3804,7 @@
       <c r="A237" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3833,7 +3828,7 @@
       <c r="A240" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3841,7 +3836,7 @@
       <c r="A241" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3850,7 +3845,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
@@ -3865,7 +3860,7 @@
       <c r="A244" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3873,7 +3868,7 @@
       <c r="A245" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3922,7 +3917,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
@@ -3930,7 +3925,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
@@ -3945,7 +3940,7 @@
       <c r="A254" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3954,14 +3949,14 @@
         <v>255</v>
       </c>
       <c r="B255" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -3977,7 +3972,7 @@
       <c r="A258" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -3986,14 +3981,14 @@
         <v>259</v>
       </c>
       <c r="B259" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4025,15 +4020,15 @@
       <c r="A264" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B264" s="2">
-        <v>1.0</v>
+      <c r="B264" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4057,15 +4052,15 @@
       <c r="A268" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B268" s="2">
-        <v>1.0</v>
+      <c r="B268" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4082,14 +4077,14 @@
         <v>271</v>
       </c>
       <c r="B271" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4105,7 +4100,7 @@
       <c r="A274" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="5">
         <v>0.0</v>
       </c>
     </row>
@@ -4113,6 +4108,9 @@
       <c r="A275" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="B275" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
@@ -4142,7 +4140,7 @@
       <c r="A279" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4150,15 +4148,15 @@
       <c r="A280" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B280" s="2">
-        <v>0.0</v>
+      <c r="B280" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4166,15 +4164,15 @@
       <c r="A282" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B282" s="2">
-        <v>0.0</v>
+      <c r="B282" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4182,7 +4180,7 @@
       <c r="A284" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4198,7 +4196,7 @@
       <c r="A286" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4206,8 +4204,8 @@
       <c r="A287" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B287" s="2">
-        <v>0.0</v>
+      <c r="B287" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
@@ -4222,7 +4220,7 @@
       <c r="A289" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4254,8 +4252,8 @@
       <c r="A293" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B293" s="2">
-        <v>1.0</v>
+      <c r="B293" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
@@ -4278,39 +4276,39 @@
       <c r="A296" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B296" s="2">
-        <v>1.0</v>
+      <c r="B296" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B297" s="2">
-        <v>0.0</v>
+      <c r="B297" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B298" s="2">
-        <v>0.0</v>
+      <c r="B298" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B299" s="2">
-        <v>1.0</v>
+      <c r="B299" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -4319,7 +4317,7 @@
         <v>301</v>
       </c>
       <c r="B301" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1"/>
@@ -5042,7 +5040,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.75"/>
+    <col customWidth="1" min="1" max="1" width="84.38"/>
+    <col customWidth="1" min="2" max="6" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5065,80 +5064,80 @@
       <c r="A3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
+      <c r="B3" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
+      <c r="B4" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.0</v>
+      <c r="B5" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.0</v>
+      <c r="B6" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.0</v>
+      <c r="B7" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.0</v>
+      <c r="B8" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.0</v>
+      <c r="B9" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.0</v>
+      <c r="B10" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.0</v>
+      <c r="B11" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="2">
-        <v>1.0</v>
+      <c r="B12" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -5153,8 +5152,8 @@
       <c r="A14" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.0</v>
+      <c r="B14" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -5169,16 +5168,16 @@
       <c r="A16" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.0</v>
+      <c r="B16" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="2">
-        <v>1.0</v>
+      <c r="B17" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -5193,79 +5192,79 @@
       <c r="A19" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.0</v>
+      <c r="B19" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.0</v>
+      <c r="B20" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.0</v>
+      <c r="B21" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.0</v>
+      <c r="B22" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.0</v>
+      <c r="B23" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.0</v>
+      <c r="B24" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="2">
-        <v>0.0</v>
+      <c r="B25" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.0</v>
+      <c r="B26" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="2">
-        <v>1.0</v>
+      <c r="B27" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -5273,8 +5272,8 @@
       <c r="A29" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="2">
-        <v>1.0</v>
+      <c r="B29" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -5313,48 +5312,48 @@
       <c r="A34" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B34" s="2">
-        <v>0.0</v>
+      <c r="B34" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B35" s="2">
-        <v>1.0</v>
+      <c r="B35" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.0</v>
+      <c r="B36" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="2">
-        <v>0.0</v>
+      <c r="B37" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B38" s="2">
-        <v>1.0</v>
+      <c r="B38" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B39" s="2">
-        <v>0.0</v>
+      <c r="B39" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -5385,16 +5384,16 @@
       <c r="A43" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B43" s="2">
-        <v>0.0</v>
+      <c r="B43" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B44" s="2">
-        <v>1.0</v>
+      <c r="B44" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -5409,24 +5408,24 @@
       <c r="A46" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B46" s="2">
-        <v>0.0</v>
+      <c r="B46" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B47" s="2">
-        <v>0.0</v>
+      <c r="B47" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B48" s="2">
-        <v>0.0</v>
+      <c r="B48" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -5441,24 +5440,24 @@
       <c r="A50" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B50" s="2">
-        <v>0.0</v>
+      <c r="B50" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B51" s="2">
-        <v>0.0</v>
+      <c r="B51" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B52" s="2">
-        <v>0.0</v>
+      <c r="B52" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5473,8 +5472,8 @@
       <c r="A54" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B54" s="2">
-        <v>0.0</v>
+      <c r="B54" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5489,8 +5488,8 @@
       <c r="A56" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B56" s="2">
-        <v>0.0</v>
+      <c r="B56" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5505,16 +5504,16 @@
       <c r="A58" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B58" s="2">
-        <v>0.0</v>
+      <c r="B58" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="2">
-        <v>0.0</v>
+      <c r="B59" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5529,16 +5528,16 @@
       <c r="A61" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B61" s="2">
-        <v>0.0</v>
+      <c r="B61" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B62" s="2">
-        <v>0.0</v>
+      <c r="B62" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -5553,24 +5552,24 @@
       <c r="A64" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B64" s="2">
-        <v>1.0</v>
+      <c r="B64" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B65" s="2">
-        <v>1.0</v>
+      <c r="B65" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B66" s="2">
-        <v>0.0</v>
+      <c r="B66" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -5593,16 +5592,16 @@
       <c r="A69" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B69" s="2">
-        <v>0.0</v>
+      <c r="B69" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B70" s="2">
-        <v>0.0</v>
+      <c r="B70" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -5625,16 +5624,16 @@
       <c r="A73" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B73" s="2">
-        <v>1.0</v>
+      <c r="B73" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B74" s="2">
-        <v>0.0</v>
+      <c r="B74" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -5649,48 +5648,48 @@
       <c r="A76" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B76" s="2">
-        <v>0.0</v>
+      <c r="B76" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B77" s="2">
-        <v>0.0</v>
+      <c r="B77" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B78" s="2">
-        <v>0.0</v>
+      <c r="B78" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B79" s="2">
-        <v>0.0</v>
+      <c r="B79" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B80" s="2">
-        <v>0.0</v>
+      <c r="B80" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B81" s="2">
-        <v>0.0</v>
+      <c r="B81" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -5705,8 +5704,8 @@
       <c r="A83" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B83" s="2">
-        <v>0.0</v>
+      <c r="B83" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -5721,48 +5720,48 @@
       <c r="A85" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B85" s="2">
-        <v>0.0</v>
+      <c r="B85" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B86" s="2">
-        <v>1.0</v>
+      <c r="B86" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B87" s="2">
-        <v>0.0</v>
+      <c r="B87" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B88" s="2">
-        <v>1.0</v>
+      <c r="B88" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B89" s="2">
-        <v>0.0</v>
+      <c r="B89" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B90" s="2">
-        <v>0.0</v>
+      <c r="B90" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -5777,8 +5776,8 @@
       <c r="A92" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B92" s="2">
-        <v>0.0</v>
+      <c r="B92" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -5793,8 +5792,8 @@
       <c r="A94" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B94" s="2">
-        <v>0.0</v>
+      <c r="B94" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -5809,24 +5808,24 @@
       <c r="A96" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B96" s="2">
-        <v>0.0</v>
+      <c r="B96" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B97" s="2">
-        <v>0.0</v>
+      <c r="B97" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B98" s="2">
-        <v>0.0</v>
+      <c r="B98" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -5841,7 +5840,7 @@
       <c r="A100" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -5849,16 +5848,16 @@
       <c r="A101" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B101" s="2">
-        <v>0.0</v>
+      <c r="B101" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B102" s="2">
-        <v>1.0</v>
+      <c r="B102" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
@@ -5889,24 +5888,24 @@
       <c r="A106" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B106" s="2">
-        <v>1.0</v>
+      <c r="B106" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B107" s="2">
-        <v>1.0</v>
+      <c r="B107" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B108" s="2">
-        <v>1.0</v>
+      <c r="B108" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
@@ -5937,16 +5936,16 @@
       <c r="A112" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B112" s="2">
-        <v>1.0</v>
+      <c r="B112" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B113" s="2">
-        <v>0.0</v>
+      <c r="B113" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -5961,15 +5960,15 @@
       <c r="A115" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B115" s="2">
-        <v>0.0</v>
+      <c r="B115" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -5977,32 +5976,32 @@
       <c r="A117" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B117" s="2">
-        <v>0.0</v>
+      <c r="B117" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B118" s="2">
-        <v>0.0</v>
+      <c r="B118" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B119" s="2">
-        <v>0.0</v>
+      <c r="B119" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B120" s="2">
-        <v>0.0</v>
+      <c r="B120" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
@@ -6017,8 +6016,8 @@
       <c r="A122" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B122" s="2">
-        <v>1.0</v>
+      <c r="B122" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -6033,8 +6032,8 @@
       <c r="A124" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B124" s="2">
-        <v>1.0</v>
+      <c r="B124" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
@@ -6049,8 +6048,8 @@
       <c r="A126" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B126" s="2">
-        <v>1.0</v>
+      <c r="B126" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -6089,8 +6088,8 @@
       <c r="A131" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B131" s="2">
-        <v>1.0</v>
+      <c r="B131" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
@@ -6105,8 +6104,8 @@
       <c r="A133" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B133" s="2">
-        <v>0.0</v>
+      <c r="B133" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
@@ -6121,40 +6120,40 @@
       <c r="A135" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B135" s="2">
-        <v>0.0</v>
+      <c r="B135" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B136" s="2">
-        <v>1.0</v>
+      <c r="B136" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B137" s="2">
-        <v>0.0</v>
+      <c r="B137" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B138" s="2">
-        <v>0.0</v>
+      <c r="B138" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B139" s="2">
-        <v>0.0</v>
+      <c r="B139" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
@@ -6193,16 +6192,16 @@
       <c r="A144" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B144" s="2">
-        <v>1.0</v>
+      <c r="B144" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B145" s="2">
-        <v>0.0</v>
+      <c r="B145" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
@@ -6217,16 +6216,16 @@
       <c r="A147" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B147" s="2">
-        <v>0.0</v>
+      <c r="B147" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B148" s="2">
-        <v>0.0</v>
+      <c r="B148" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
@@ -6265,8 +6264,8 @@
       <c r="A153" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B153" s="2">
-        <v>1.0</v>
+      <c r="B153" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
@@ -6289,16 +6288,16 @@
       <c r="A156" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B156" s="2">
-        <v>1.0</v>
+      <c r="B156" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B157" s="2">
-        <v>0.0</v>
+      <c r="B157" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
@@ -6313,8 +6312,8 @@
       <c r="A159" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B159" s="2">
-        <v>0.0</v>
+      <c r="B159" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
@@ -6337,8 +6336,8 @@
       <c r="A162" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B162" s="2">
-        <v>0.0</v>
+      <c r="B162" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
@@ -6353,16 +6352,16 @@
       <c r="A164" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B164" s="2">
-        <v>0.0</v>
+      <c r="B164" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B165" s="2">
-        <v>0.0</v>
+      <c r="B165" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
@@ -6393,8 +6392,8 @@
       <c r="A169" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B169" s="2">
-        <v>0.0</v>
+      <c r="B169" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
@@ -6409,16 +6408,16 @@
       <c r="A171" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B171" s="2">
-        <v>0.0</v>
+      <c r="B171" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B172" s="2">
-        <v>0.0</v>
+      <c r="B172" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
@@ -6449,24 +6448,24 @@
       <c r="A176" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B176" s="2">
-        <v>0.0</v>
+      <c r="B176" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B177" s="2">
-        <v>0.0</v>
+      <c r="B177" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B178" s="2">
-        <v>0.0</v>
+      <c r="B178" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
@@ -6489,16 +6488,16 @@
       <c r="A181" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B181" s="2">
-        <v>0.0</v>
+      <c r="B181" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B182" s="2">
-        <v>0.0</v>
+      <c r="B182" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
@@ -6521,8 +6520,8 @@
       <c r="A185" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B185" s="2">
-        <v>1.0</v>
+      <c r="B185" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
@@ -6545,8 +6544,8 @@
       <c r="A188" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B188" s="2">
-        <v>1.0</v>
+      <c r="B188" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
@@ -6561,16 +6560,16 @@
       <c r="A190" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B190" s="2">
-        <v>1.0</v>
+      <c r="B190" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B191" s="2">
-        <v>0.0</v>
+      <c r="B191" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
@@ -6585,32 +6584,32 @@
       <c r="A193" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B193" s="2">
-        <v>1.0</v>
+      <c r="B193" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B194" s="2">
-        <v>0.0</v>
+      <c r="B194" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B195" s="2">
-        <v>0.0</v>
+      <c r="B195" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B196" s="2">
-        <v>0.0</v>
+      <c r="B196" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
@@ -6633,24 +6632,24 @@
       <c r="A199" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B199" s="2">
-        <v>0.0</v>
+      <c r="B199" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B200" s="2">
-        <v>0.0</v>
+      <c r="B200" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B201" s="2">
-        <v>1.0</v>
+      <c r="B201" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1"/>
